--- a/translations/SCH/admin-strings_SCH.xlsx
+++ b/translations/SCH/admin-strings_SCH.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18229"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28615"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brian.schlosser\Desktop\Projects\p91709\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/melinda/seattle-ready/translations/SCH/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="645" yWindow="1185" windowWidth="28155" windowHeight="16875" tabRatio="500"/>
+    <workbookView xWindow="640" yWindow="1180" windowWidth="28160" windowHeight="16880" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000"/>
+  <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -299,12 +299,6 @@
     <t>What to Expect</t>
   </si>
   <si>
-    <t>It's likely you have most items you need for your &lt;a href="http://www.seattle.gov/Documents/Departments/Emergency/Preparedness/FamilyPlans/FamilyDisasterSuppliesKitRedCross.pdf" target=_blank&gt;family supply kit&lt;/a&gt; already. Find out what else to add and get it organized before the next event hits. It's also a good idea to have an emergency</t>
-  </si>
-  <si>
-    <t>&lt;a href="http://www.seattle.gov/Documents/Departments/Emergency/Preparedness/FamilyPlans/carkit.pdf" target=_blank&gt;car kit&lt;/a&gt;.</t>
-  </si>
-  <si>
     <t>Chinese</t>
   </si>
   <si>
@@ -575,43 +569,80 @@
     <t>有何预测</t>
   </si>
   <si>
-    <t>家庭用品套装中可能已经有您需要的大部分物品。 &lt;a href="http://www.seattle.gov/Documents/Departments/Emergency/Preparedness/FamilyPlans/FamilyDisasterSuppliesKitRedCross.pdf" target=_blank&gt;&lt;/a&gt;。了解如何在下一次事件到来之前补充并整理。最好也有一套应急</t>
-  </si>
-  <si>
-    <t>&lt;a href="http://www.seattle.gov/Documents/Departments/Emergency/Preparedness/FamilyPlans/carkit.pdf" target=_blank&gt;汽车装备&lt;/a&gt;。</t>
+    <t>It's likely you have most items you need for your &lt;a href="http://www.seattle.gov/Documents/Departments/Emergency/Preparedness/FamilyPlans/FamilyDisasterSuppliesKitRedCross.pdf" target=_blank&gt;family supply kit&lt;/a&gt; already. Find out what else to add and get it organized before the next event hits. It's also a good idea to have an emergency &lt;a href="http://www.seattle.gov/Documents/Departments/Emergency/Preparedness/FamilyPlans/carkit.pdf" target=_blank&gt;car kit&lt;/a&gt;.</t>
+  </si>
+  <si>
+    <t>家庭用品套装中可能已经有您需要的大部分物品。 &lt;a href="http://www.seattle.gov/Documents/Departments/Emergency/Preparedness/FamilyPlans/FamilyDisasterSuppliesKitRedCross.pdf" &lt;a href="http://www.seattle.gov/Documents/Departments/Emergency/Preparedness/FamilyPlans/carkit.pdf" target=_blank&gt;汽车装备&lt;/a&gt;。target=_blank&gt;&lt;/a&gt;。了解如何在下一次事件到来之前补充并整理。最好能有一套应急的</t>
+  </si>
+  <si>
+    <t>What to Expect at This Location</t>
+  </si>
+  <si>
+    <t>对该地方有何期待</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
-      <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Microsoft YaHei"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Microsoft YaHei"/>
       <family val="2"/>
     </font>
     <font>
-      <b/>
       <sz val="12"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Microsoft YaHei"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -634,20 +665,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -928,759 +960,776 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:B92"/>
+  <dimension ref="A1:B96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="A87" workbookViewId="0">
+      <selection activeCell="A92" sqref="A92:B92"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="75.625" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="75.6640625" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="75.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="75.625" style="3"/>
-    <col min="3" max="16384" width="75.625" style="1"/>
+    <col min="1" max="1" width="75.6640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="75.6640625" style="3"/>
+    <col min="3" max="16384" width="75.6640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="3" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="3" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="3" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="3" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="3" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="3" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="3" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="3" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="3" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="3" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="3" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="3" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="3" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" s="3" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="3" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" s="3" t="s">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18" s="3" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="3" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19" s="3" t="s">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="3" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20" s="3" t="s">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="3" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21" s="3" t="s">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="3" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22" s="3" t="s">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" s="3" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23" s="3" t="s">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" s="3" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24" s="3" t="s">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" s="3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" s="3" t="s">
+    <row r="27" spans="1:2" ht="36" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" s="3" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B26" s="3" t="s">
+    <row r="28" spans="1:2" ht="36" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28" s="3" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="51.75" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B27" s="3" t="s">
+    <row r="29" spans="1:2" ht="72" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29" s="3" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="48" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B28" s="3" t="s">
+    <row r="30" spans="1:2" ht="65" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" s="3" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="69" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B29" s="3" t="s">
+    <row r="31" spans="1:2" ht="36" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31" s="3" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="69" x14ac:dyDescent="0.3">
-      <c r="A30" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B30" s="3" t="s">
+    <row r="32" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32" s="3" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="34.5" x14ac:dyDescent="0.3">
-      <c r="A31" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B31" s="3" t="s">
+    <row r="33" spans="1:2" ht="97" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33" s="3" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="86.25" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B32" s="3" t="s">
+    <row r="34" spans="1:2" ht="36" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34" s="3" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="95.25" x14ac:dyDescent="0.3">
-      <c r="A33" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B33" s="3" t="s">
+    <row r="35" spans="1:2" ht="36" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B35" s="3" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="51.75" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B34" s="3" t="s">
+    <row r="36" spans="1:2" ht="81" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B36" s="3" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="34.5" x14ac:dyDescent="0.3">
-      <c r="A35" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B35" s="3" t="s">
+    <row r="37" spans="1:2" ht="54" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B37" s="3" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="79.5" x14ac:dyDescent="0.3">
-      <c r="A36" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B36" s="3" t="s">
+    <row r="38" spans="1:2" ht="49" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B38" s="3" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="51.75" x14ac:dyDescent="0.3">
-      <c r="A37" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B37" s="3" t="s">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B39" s="3" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="48" x14ac:dyDescent="0.3">
-      <c r="A38" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B38" s="3" t="s">
+    <row r="40" spans="1:2" ht="36" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B40" s="3" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B39" s="3" t="s">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B41" s="3" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="34.5" x14ac:dyDescent="0.3">
-      <c r="A40" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B40" s="3" t="s">
+    <row r="42" spans="1:2" ht="54" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B42" s="3" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B41" s="3" t="s">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B43" s="3" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="51.75" x14ac:dyDescent="0.3">
-      <c r="A42" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B42" s="3" t="s">
+    <row r="44" spans="1:2" ht="36" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B44" s="3" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B43" s="3" t="s">
+    <row r="45" spans="1:2" ht="49" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B45" s="3" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="34.5" x14ac:dyDescent="0.3">
-      <c r="A44" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B44" s="3" t="s">
+    <row r="46" spans="1:2" ht="36" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B46" s="3" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="48" x14ac:dyDescent="0.3">
-      <c r="A45" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B45" s="3" t="s">
+    <row r="47" spans="1:2" ht="72" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B47" s="3" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="34.5" x14ac:dyDescent="0.3">
-      <c r="A46" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B46" s="3" t="s">
+    <row r="48" spans="1:2" ht="108" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B48" s="3" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="69" x14ac:dyDescent="0.3">
-      <c r="A47" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B47" s="3" t="s">
+    <row r="49" spans="1:2" ht="54" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B49" s="3" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="103.5" x14ac:dyDescent="0.3">
-      <c r="A48" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B48" s="3" t="s">
+    <row r="50" spans="1:2" ht="36" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B50" s="3" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="51.75" x14ac:dyDescent="0.3">
-      <c r="A49" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B49" s="3" t="s">
+    <row r="51" spans="1:2" ht="36" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B51" s="3" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="34.5" x14ac:dyDescent="0.3">
-      <c r="A50" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B50" s="3" t="s">
+    <row r="52" spans="1:2" ht="36" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B52" s="3" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="34.5" x14ac:dyDescent="0.3">
-      <c r="A51" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B51" s="3" t="s">
+    <row r="53" spans="1:2" ht="65" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B53" s="3" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="34.5" x14ac:dyDescent="0.3">
-      <c r="A52" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B52" s="3" t="s">
+    <row r="54" spans="1:2" ht="81" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B54" s="3" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="63.75" x14ac:dyDescent="0.3">
-      <c r="A53" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B53" s="3" t="s">
+    <row r="55" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B55" s="3" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="79.5" x14ac:dyDescent="0.3">
-      <c r="A54" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B54" s="3" t="s">
+    <row r="56" spans="1:2" ht="72" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B56" s="3" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="86.25" x14ac:dyDescent="0.3">
-      <c r="A55" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B55" s="3" t="s">
+    <row r="57" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B57" s="3" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="69" x14ac:dyDescent="0.3">
-      <c r="A56" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B56" s="3" t="s">
+    <row r="58" spans="1:2" ht="36" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B58" s="3" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="86.25" x14ac:dyDescent="0.3">
-      <c r="A57" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B57" s="3" t="s">
+    <row r="59" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B59" s="3" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="51.75" x14ac:dyDescent="0.3">
-      <c r="A58" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B58" s="3" t="s">
+    <row r="60" spans="1:2" ht="97" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B60" s="3" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="86.25" x14ac:dyDescent="0.3">
-      <c r="A59" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B59" s="3" t="s">
+    <row r="61" spans="1:2" ht="36" x14ac:dyDescent="0.25">
+      <c r="A61" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B61" s="3" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="95.25" x14ac:dyDescent="0.3">
-      <c r="A60" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B60" s="3" t="s">
+    <row r="62" spans="1:2" ht="49" x14ac:dyDescent="0.25">
+      <c r="A62" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B62" s="3" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="34.5" x14ac:dyDescent="0.3">
-      <c r="A61" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B61" s="3" t="s">
+    <row r="63" spans="1:2" ht="36" x14ac:dyDescent="0.25">
+      <c r="A63" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B63" s="3" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="48" x14ac:dyDescent="0.3">
-      <c r="A62" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B62" s="3" t="s">
+    <row r="64" spans="1:2" ht="49" x14ac:dyDescent="0.25">
+      <c r="A64" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B64" s="3" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="34.5" x14ac:dyDescent="0.3">
-      <c r="A63" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B63" s="3" t="s">
+    <row r="65" spans="1:2" ht="49" x14ac:dyDescent="0.25">
+      <c r="A65" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B65" s="3" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="48" x14ac:dyDescent="0.3">
-      <c r="A64" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B64" s="3" t="s">
+    <row r="66" spans="1:2" ht="54" x14ac:dyDescent="0.25">
+      <c r="A66" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B66" s="3" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="48" x14ac:dyDescent="0.3">
-      <c r="A65" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B65" s="3" t="s">
+    <row r="67" spans="1:2" ht="54" x14ac:dyDescent="0.25">
+      <c r="A67" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B67" s="3" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="51.75" x14ac:dyDescent="0.3">
-      <c r="A66" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B66" s="3" t="s">
+    <row r="68" spans="1:2" ht="49" x14ac:dyDescent="0.25">
+      <c r="A68" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B68" s="3" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="67" spans="1:2" ht="63.75" x14ac:dyDescent="0.3">
-      <c r="A67" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B67" s="3" t="s">
+    <row r="69" spans="1:2" ht="72" x14ac:dyDescent="0.25">
+      <c r="A69" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B69" s="3" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="48" x14ac:dyDescent="0.3">
-      <c r="A68" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B68" s="3" t="s">
+    <row r="70" spans="1:2" ht="72" x14ac:dyDescent="0.25">
+      <c r="A70" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B70" s="3" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="86.25" x14ac:dyDescent="0.3">
-      <c r="A69" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B69" s="3" t="s">
+    <row r="71" spans="1:2" ht="54" x14ac:dyDescent="0.25">
+      <c r="A71" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B71" s="3" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="70" spans="1:2" ht="69" x14ac:dyDescent="0.3">
-      <c r="A70" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B70" s="3" t="s">
+    <row r="72" spans="1:2" ht="49" x14ac:dyDescent="0.25">
+      <c r="A72" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B72" s="3" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="71" spans="1:2" ht="69" x14ac:dyDescent="0.3">
-      <c r="A71" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B71" s="3" t="s">
+    <row r="73" spans="1:2" ht="49" x14ac:dyDescent="0.25">
+      <c r="A73" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B73" s="3" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="72" spans="1:2" ht="48" x14ac:dyDescent="0.3">
-      <c r="A72" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B72" s="3" t="s">
+    <row r="74" spans="1:2" ht="36" x14ac:dyDescent="0.25">
+      <c r="A74" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B74" s="3" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="73" spans="1:2" ht="48" x14ac:dyDescent="0.3">
-      <c r="A73" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B73" s="3" t="s">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B75" s="3" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="74" spans="1:2" ht="51.75" x14ac:dyDescent="0.3">
-      <c r="A74" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B74" s="3" t="s">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B76" s="3" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A75" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B75" s="3" t="s">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B77" s="3" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A76" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B76" s="3" t="s">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B78" s="3" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A77" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B77" s="3" t="s">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B79" s="3" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A78" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B78" s="3" t="s">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B80" s="3" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A79" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B79" s="3" t="s">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B81" s="3" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A80" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B80" s="3" t="s">
+    <row r="82" spans="1:2" ht="33" x14ac:dyDescent="0.25">
+      <c r="A82" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B82" s="3" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A81" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B81" s="3" t="s">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B83" s="3" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="82" spans="1:2" ht="32.25" x14ac:dyDescent="0.3">
-      <c r="A82" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B82" s="3" t="s">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B84" s="3" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A83" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B83" s="3" t="s">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B85" s="3" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A84" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B84" s="3" t="s">
+    <row r="86" spans="1:2" ht="36" x14ac:dyDescent="0.25">
+      <c r="A86" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B86" s="3" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A85" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B85" s="3" t="s">
+    <row r="87" spans="1:2" ht="342" x14ac:dyDescent="0.25">
+      <c r="A87" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B87" s="3" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="86" spans="1:2" ht="34.5" x14ac:dyDescent="0.3">
-      <c r="A86" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B86" s="3" t="s">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B88" s="3" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="87" spans="1:2" ht="327.75" x14ac:dyDescent="0.3">
-      <c r="A87" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B87" s="3" t="s">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B89" s="3" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A88" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B88" s="3" t="s">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B90" s="3" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A89" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B89" s="3" t="s">
+    <row r="91" spans="1:2" ht="126" x14ac:dyDescent="0.25">
+      <c r="A91" s="2" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A90" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B90" s="3" t="s">
+      <c r="B91" s="3" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="91" spans="1:2" ht="86.25" x14ac:dyDescent="0.3">
-      <c r="A91" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B91" s="3" t="s">
+    <row r="92" spans="1:2" ht="17" x14ac:dyDescent="0.25">
+      <c r="A92" s="6" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="92" spans="1:2" ht="51.75" x14ac:dyDescent="0.3">
-      <c r="A92" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B92" s="3" t="s">
+      <c r="B92" s="7" t="s">
         <v>183</v>
       </c>
     </row>
+    <row r="93" spans="1:2" ht="17" x14ac:dyDescent="0.25">
+      <c r="A93" s="4"/>
+      <c r="B93" s="5"/>
+    </row>
+    <row r="94" spans="1:2" ht="17" x14ac:dyDescent="0.25">
+      <c r="A94" s="4"/>
+      <c r="B94" s="5"/>
+    </row>
+    <row r="95" spans="1:2" ht="17" x14ac:dyDescent="0.25">
+      <c r="A95" s="4"/>
+      <c r="B95" s="5"/>
+    </row>
+    <row r="96" spans="1:2" ht="17" x14ac:dyDescent="0.25">
+      <c r="A96" s="4"/>
+      <c r="B96" s="5"/>
+    </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <printOptions headings="1" gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="73" fitToHeight="0" orientation="landscape" r:id="rId1"/>

--- a/translations/SCH/admin-strings_SCH.xlsx
+++ b/translations/SCH/admin-strings_SCH.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28615"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28702"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="200">
   <si>
     <t>English</t>
   </si>
@@ -579,20 +579,73 @@
   </si>
   <si>
     <t>对该地方有何期待</t>
+  </si>
+  <si>
+    <t>Before</t>
+  </si>
+  <si>
+    <t>在……之前</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>During</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>在……期间</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>After</t>
+  </si>
+  <si>
+    <t>在……之后</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>What's Happened?</t>
+  </si>
+  <si>
+    <t>发生了什么？</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>What's the Worst?</t>
+  </si>
+  <si>
+    <t>最糟糕的事情是什么？</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cascadia Quake</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡斯卡迪亚地震</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tsunami Zone</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>海啸灾区</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>If the dams failed</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果水坝决堤</t>
+    <phoneticPr fontId="0" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -626,12 +679,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Microsoft YaHei"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -643,6 +690,14 @@
       <color rgb="FF000000"/>
       <name val="Microsoft YaHei"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -665,21 +720,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -963,10 +1017,10 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:B96"/>
+  <dimension ref="A1:B100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A87" workbookViewId="0">
-      <selection activeCell="A92" sqref="A92:B92"/>
+    <sheetView tabSelected="1" topLeftCell="A86" workbookViewId="0">
+      <selection activeCell="A93" sqref="A93:B100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="75.6640625" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -1705,31 +1759,79 @@
       </c>
     </row>
     <row r="92" spans="1:2" ht="17" x14ac:dyDescent="0.25">
-      <c r="A92" s="6" t="s">
+      <c r="A92" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="B92" s="7" t="s">
+      <c r="B92" s="5" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="93" spans="1:2" ht="17" x14ac:dyDescent="0.25">
-      <c r="A93" s="4"/>
-      <c r="B93" s="5"/>
-    </row>
-    <row r="94" spans="1:2" ht="17" x14ac:dyDescent="0.25">
-      <c r="A94" s="4"/>
-      <c r="B94" s="5"/>
-    </row>
-    <row r="95" spans="1:2" ht="17" x14ac:dyDescent="0.25">
-      <c r="A95" s="4"/>
-      <c r="B95" s="5"/>
-    </row>
-    <row r="96" spans="1:2" ht="17" x14ac:dyDescent="0.25">
-      <c r="A96" s="4"/>
-      <c r="B96" s="5"/>
+    <row r="93" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>184</v>
+      </c>
+      <c r="B93" s="6" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>186</v>
+      </c>
+      <c r="B94" s="6" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>188</v>
+      </c>
+      <c r="B95" s="6" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>190</v>
+      </c>
+      <c r="B96" s="6" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>192</v>
+      </c>
+      <c r="B97" s="6" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>194</v>
+      </c>
+      <c r="B98" s="6" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>196</v>
+      </c>
+      <c r="B99" s="6" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>198</v>
+      </c>
+      <c r="B100" s="6" t="s">
+        <v>199</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <printOptions headings="1" gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="73" fitToHeight="0" orientation="landscape" r:id="rId1"/>
